--- a/natmiOut/OldD2/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.40347052925556</v>
+        <v>2.550273</v>
       </c>
       <c r="H2">
-        <v>2.40347052925556</v>
+        <v>5.100546</v>
       </c>
       <c r="I2">
-        <v>0.2003043720780716</v>
+        <v>0.1830612883163387</v>
       </c>
       <c r="J2">
-        <v>0.2003043720780716</v>
+        <v>0.1299717935339278</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6831733112614981</v>
+        <v>0.7414780000000001</v>
       </c>
       <c r="N2">
-        <v>0.6831733112614981</v>
+        <v>1.482956</v>
       </c>
       <c r="O2">
-        <v>0.01555790322996438</v>
+        <v>0.01573640779444115</v>
       </c>
       <c r="P2">
-        <v>0.01555790322996438</v>
+        <v>0.01066678136973736</v>
       </c>
       <c r="Q2">
-        <v>1.641986919990946</v>
+        <v>1.890971323494</v>
       </c>
       <c r="R2">
-        <v>1.641986919990946</v>
+        <v>7.563885293976</v>
       </c>
       <c r="S2">
-        <v>0.003116316037329418</v>
+        <v>0.00288072708432167</v>
       </c>
       <c r="T2">
-        <v>0.003116316037329418</v>
+        <v>0.001386380705859052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.40347052925556</v>
+        <v>2.550273</v>
       </c>
       <c r="H3">
-        <v>2.40347052925556</v>
+        <v>5.100546</v>
       </c>
       <c r="I3">
-        <v>0.2003043720780716</v>
+        <v>0.1830612883163387</v>
       </c>
       <c r="J3">
-        <v>0.2003043720780716</v>
+        <v>0.1299717935339278</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.4481526618066</v>
+        <v>43.76479166666667</v>
       </c>
       <c r="N3">
-        <v>41.4481526618066</v>
+        <v>131.294375</v>
       </c>
       <c r="O3">
-        <v>0.9438986235900395</v>
+        <v>0.9288213658468979</v>
       </c>
       <c r="P3">
-        <v>0.9438986235900395</v>
+        <v>0.9443897143282142</v>
       </c>
       <c r="Q3">
-        <v>99.61941341473755</v>
+        <v>111.612166538125</v>
       </c>
       <c r="R3">
-        <v>99.61941341473755</v>
+        <v>669.67299922875</v>
       </c>
       <c r="S3">
-        <v>0.189067021103559</v>
+        <v>0.1700312358476745</v>
       </c>
       <c r="T3">
-        <v>0.189067021103559</v>
+        <v>0.1227440249662317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.40347052925556</v>
+        <v>2.550273</v>
       </c>
       <c r="H4">
-        <v>2.40347052925556</v>
+        <v>5.100546</v>
       </c>
       <c r="I4">
-        <v>0.2003043720780716</v>
+        <v>0.1830612883163387</v>
       </c>
       <c r="J4">
-        <v>0.2003043720780716</v>
+        <v>0.1299717935339278</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.340948752398633</v>
+        <v>0.433046</v>
       </c>
       <c r="N4">
-        <v>0.340948752398633</v>
+        <v>1.299138</v>
       </c>
       <c r="O4">
-        <v>0.007764424647093153</v>
+        <v>0.009190547055680088</v>
       </c>
       <c r="P4">
-        <v>0.007764424647093153</v>
+        <v>0.009344593511282775</v>
       </c>
       <c r="Q4">
-        <v>0.8194602783765652</v>
+        <v>1.104385521558</v>
       </c>
       <c r="R4">
-        <v>0.8194602783765652</v>
+        <v>6.626313129347999</v>
       </c>
       <c r="S4">
-        <v>0.001555248203483497</v>
+        <v>0.00168243338434473</v>
       </c>
       <c r="T4">
-        <v>0.001555248203483497</v>
+        <v>0.001214533578506926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.40347052925556</v>
+        <v>2.550273</v>
       </c>
       <c r="H5">
-        <v>2.40347052925556</v>
+        <v>5.100546</v>
       </c>
       <c r="I5">
-        <v>0.2003043720780716</v>
+        <v>0.1830612883163387</v>
       </c>
       <c r="J5">
-        <v>0.2003043720780716</v>
+        <v>0.1299717935339278</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.43938233804504</v>
+        <v>0.111859</v>
       </c>
       <c r="N5">
-        <v>1.43938233804504</v>
+        <v>0.335577</v>
       </c>
       <c r="O5">
-        <v>0.03277904853290288</v>
+        <v>0.002373986604428442</v>
       </c>
       <c r="P5">
-        <v>0.03277904853290288</v>
+        <v>0.002413777948713486</v>
       </c>
       <c r="Q5">
-        <v>3.459513029822217</v>
+        <v>0.285270987507</v>
       </c>
       <c r="R5">
-        <v>3.459513029822217</v>
+        <v>1.711625925042</v>
       </c>
       <c r="S5">
-        <v>0.006565786733699746</v>
+        <v>0.0004345850462524009</v>
       </c>
       <c r="T5">
-        <v>0.006565786733699746</v>
+        <v>0.000313723049186937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -782,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.84639129167169</v>
+        <v>2.550273</v>
       </c>
       <c r="H6">
-        <v>5.84639129167169</v>
+        <v>5.100546</v>
       </c>
       <c r="I6">
-        <v>0.4872361538644379</v>
+        <v>0.1830612883163387</v>
       </c>
       <c r="J6">
-        <v>0.4872361538644379</v>
+        <v>0.1299717935339278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6831733112614981</v>
+        <v>0.4786703333333334</v>
       </c>
       <c r="N6">
-        <v>0.6831733112614981</v>
+        <v>1.436011</v>
       </c>
       <c r="O6">
-        <v>0.01555790322996438</v>
+        <v>0.01015883352497904</v>
       </c>
       <c r="P6">
-        <v>0.01555790322996438</v>
+        <v>0.01032910981953472</v>
       </c>
       <c r="Q6">
-        <v>3.994098497661735</v>
+        <v>1.220740027001</v>
       </c>
       <c r="R6">
-        <v>3.994098497661735</v>
+        <v>7.324440162006</v>
       </c>
       <c r="S6">
-        <v>0.007580372931962961</v>
+        <v>0.001859689152873875</v>
       </c>
       <c r="T6">
-        <v>0.007580372931962961</v>
+        <v>0.001342492928853832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -844,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.84639129167169</v>
+        <v>2.550273</v>
       </c>
       <c r="H7">
-        <v>5.84639129167169</v>
+        <v>5.100546</v>
       </c>
       <c r="I7">
-        <v>0.4872361538644379</v>
+        <v>0.1830612883163387</v>
       </c>
       <c r="J7">
-        <v>0.4872361538644379</v>
+        <v>0.1299717935339278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.4481526618066</v>
+        <v>1.5887865</v>
       </c>
       <c r="N7">
-        <v>41.4481526618066</v>
+        <v>3.177573</v>
       </c>
       <c r="O7">
-        <v>0.9438986235900395</v>
+        <v>0.03371885917357341</v>
       </c>
       <c r="P7">
-        <v>0.9438986235900395</v>
+        <v>0.0228560230225175</v>
       </c>
       <c r="Q7">
-        <v>242.3221187778649</v>
+        <v>4.051839313714499</v>
       </c>
       <c r="R7">
-        <v>242.3221187778649</v>
+        <v>16.207357254858</v>
       </c>
       <c r="S7">
-        <v>0.4599015349959477</v>
+        <v>0.006172617800871544</v>
       </c>
       <c r="T7">
-        <v>0.4599015349959477</v>
+        <v>0.002970638305289346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.84639129167169</v>
+        <v>7.097938333333334</v>
       </c>
       <c r="H8">
-        <v>5.84639129167169</v>
+        <v>21.293815</v>
       </c>
       <c r="I8">
-        <v>0.4872361538644379</v>
+        <v>0.5094975070080443</v>
       </c>
       <c r="J8">
-        <v>0.4872361538644379</v>
+        <v>0.5426076594014947</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.340948752398633</v>
+        <v>0.7414780000000001</v>
       </c>
       <c r="N8">
-        <v>0.340948752398633</v>
+        <v>1.482956</v>
       </c>
       <c r="O8">
-        <v>0.007764424647093153</v>
+        <v>0.01573640779444115</v>
       </c>
       <c r="P8">
-        <v>0.007764424647093153</v>
+        <v>0.01066678136973736</v>
       </c>
       <c r="Q8">
-        <v>1.993319816929695</v>
+        <v>5.262965119523335</v>
       </c>
       <c r="R8">
-        <v>1.993319816929695</v>
+        <v>31.57779071714001</v>
       </c>
       <c r="S8">
-        <v>0.003783108402019914</v>
+        <v>0.008017660540529721</v>
       </c>
       <c r="T8">
-        <v>0.003783108402019914</v>
+        <v>0.005787877272380661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.84639129167169</v>
+        <v>7.097938333333334</v>
       </c>
       <c r="H9">
-        <v>5.84639129167169</v>
+        <v>21.293815</v>
       </c>
       <c r="I9">
-        <v>0.4872361538644379</v>
+        <v>0.5094975070080443</v>
       </c>
       <c r="J9">
-        <v>0.4872361538644379</v>
+        <v>0.5426076594014947</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43938233804504</v>
+        <v>43.76479166666667</v>
       </c>
       <c r="N9">
-        <v>1.43938233804504</v>
+        <v>131.294375</v>
       </c>
       <c r="O9">
-        <v>0.03277904853290288</v>
+        <v>0.9288213658468979</v>
       </c>
       <c r="P9">
-        <v>0.03277904853290288</v>
+        <v>0.9443897143282142</v>
       </c>
       <c r="Q9">
-        <v>8.415192366532558</v>
+        <v>310.6397924211806</v>
       </c>
       <c r="R9">
-        <v>8.415192366532558</v>
+        <v>2795.758131790625</v>
       </c>
       <c r="S9">
-        <v>0.01597113753450734</v>
+        <v>0.4732321703548011</v>
       </c>
       <c r="T9">
-        <v>0.01597113753450734</v>
+        <v>0.5124330924544785</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1030,122 +1030,122 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.82824117033686</v>
+        <v>7.097938333333334</v>
       </c>
       <c r="H10">
-        <v>2.82824117033686</v>
+        <v>21.293815</v>
       </c>
       <c r="I10">
-        <v>0.2357046049926575</v>
+        <v>0.5094975070080443</v>
       </c>
       <c r="J10">
-        <v>0.2357046049926575</v>
+        <v>0.5426076594014947</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6831733112614981</v>
+        <v>0.433046</v>
       </c>
       <c r="N10">
-        <v>0.6831733112614981</v>
+        <v>1.299138</v>
       </c>
       <c r="O10">
-        <v>0.01555790322996438</v>
+        <v>0.009190547055680088</v>
       </c>
       <c r="P10">
-        <v>0.01555790322996438</v>
+        <v>0.009344593511282775</v>
       </c>
       <c r="Q10">
-        <v>1.932178885385127</v>
+        <v>3.073733803496667</v>
       </c>
       <c r="R10">
-        <v>1.932178885385127</v>
+        <v>27.66360423147</v>
       </c>
       <c r="S10">
-        <v>0.003667069435332744</v>
+        <v>0.004682560812909126</v>
       </c>
       <c r="T10">
-        <v>0.003667069435332744</v>
+        <v>0.005070448013215541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.82824117033686</v>
+        <v>7.097938333333334</v>
       </c>
       <c r="H11">
-        <v>2.82824117033686</v>
+        <v>21.293815</v>
       </c>
       <c r="I11">
-        <v>0.2357046049926575</v>
+        <v>0.5094975070080443</v>
       </c>
       <c r="J11">
-        <v>0.2357046049926575</v>
+        <v>0.5426076594014947</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>41.4481526618066</v>
+        <v>0.111859</v>
       </c>
       <c r="N11">
-        <v>41.4481526618066</v>
+        <v>0.335577</v>
       </c>
       <c r="O11">
-        <v>0.9438986235900395</v>
+        <v>0.002373986604428442</v>
       </c>
       <c r="P11">
-        <v>0.9438986235900395</v>
+        <v>0.002413777948713486</v>
       </c>
       <c r="Q11">
-        <v>117.2253717925287</v>
+        <v>0.7939682840283334</v>
       </c>
       <c r="R11">
-        <v>117.2253717925287</v>
+        <v>7.145714556255001</v>
       </c>
       <c r="S11">
-        <v>0.2224812522264034</v>
+        <v>0.001209540256626783</v>
       </c>
       <c r="T11">
-        <v>0.2224812522264034</v>
+        <v>0.001309734403066366</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.82824117033686</v>
+        <v>7.097938333333334</v>
       </c>
       <c r="H12">
-        <v>2.82824117033686</v>
+        <v>21.293815</v>
       </c>
       <c r="I12">
-        <v>0.2357046049926575</v>
+        <v>0.5094975070080443</v>
       </c>
       <c r="J12">
-        <v>0.2357046049926575</v>
+        <v>0.5426076594014947</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.340948752398633</v>
+        <v>0.4786703333333334</v>
       </c>
       <c r="N12">
-        <v>0.340948752398633</v>
+        <v>1.436011</v>
       </c>
       <c r="O12">
-        <v>0.007764424647093153</v>
+        <v>0.01015883352497904</v>
       </c>
       <c r="P12">
-        <v>0.007764424647093153</v>
+        <v>0.01032910981953472</v>
       </c>
       <c r="Q12">
-        <v>0.9642852985088021</v>
+        <v>3.397572507996112</v>
       </c>
       <c r="R12">
-        <v>0.9642852985088021</v>
+        <v>30.57815257196501</v>
       </c>
       <c r="S12">
-        <v>0.001830110644438346</v>
+        <v>0.005175900355086563</v>
       </c>
       <c r="T12">
-        <v>0.001830110644438346</v>
+        <v>0.005604654102878727</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,57 +1219,57 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.82824117033686</v>
+        <v>7.097938333333334</v>
       </c>
       <c r="H13">
-        <v>2.82824117033686</v>
+        <v>21.293815</v>
       </c>
       <c r="I13">
-        <v>0.2357046049926575</v>
+        <v>0.5094975070080443</v>
       </c>
       <c r="J13">
-        <v>0.2357046049926575</v>
+        <v>0.5426076594014947</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.43938233804504</v>
+        <v>1.5887865</v>
       </c>
       <c r="N13">
-        <v>1.43938233804504</v>
+        <v>3.177573</v>
       </c>
       <c r="O13">
-        <v>0.03277904853290288</v>
+        <v>0.03371885917357341</v>
       </c>
       <c r="P13">
-        <v>0.03277904853290288</v>
+        <v>0.0228560230225175</v>
       </c>
       <c r="Q13">
-        <v>4.070920388314709</v>
+        <v>11.2771086018325</v>
       </c>
       <c r="R13">
-        <v>4.070920388314709</v>
+        <v>67.662651610995</v>
       </c>
       <c r="S13">
-        <v>0.007726172686483022</v>
+        <v>0.01717967468809098</v>
       </c>
       <c r="T13">
-        <v>0.007726172686483022</v>
+        <v>0.0124018531554749</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.920988712629258</v>
+        <v>3.333827333333333</v>
       </c>
       <c r="H14">
-        <v>0.920988712629258</v>
+        <v>10.001482</v>
       </c>
       <c r="I14">
-        <v>0.07675486906483288</v>
+        <v>0.2393056455776397</v>
       </c>
       <c r="J14">
-        <v>0.07675486906483288</v>
+        <v>0.2548571375568999</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6831733112614981</v>
+        <v>0.7414780000000001</v>
       </c>
       <c r="N14">
-        <v>0.6831733112614981</v>
+        <v>1.482956</v>
       </c>
       <c r="O14">
-        <v>0.01555790322996438</v>
+        <v>0.01573640779444115</v>
       </c>
       <c r="P14">
-        <v>0.01555790322996438</v>
+        <v>0.01066678136973736</v>
       </c>
       <c r="Q14">
-        <v>0.6291949084413945</v>
+        <v>2.471959623465334</v>
       </c>
       <c r="R14">
-        <v>0.6291949084413945</v>
+        <v>14.831757740792</v>
       </c>
       <c r="S14">
-        <v>0.001194144825339257</v>
+        <v>0.00376581122632174</v>
       </c>
       <c r="T14">
-        <v>0.001194144825339257</v>
+        <v>0.002718505366836533</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1343,57 +1343,57 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.920988712629258</v>
+        <v>3.333827333333333</v>
       </c>
       <c r="H15">
-        <v>0.920988712629258</v>
+        <v>10.001482</v>
       </c>
       <c r="I15">
-        <v>0.07675486906483288</v>
+        <v>0.2393056455776397</v>
       </c>
       <c r="J15">
-        <v>0.07675486906483288</v>
+        <v>0.2548571375568999</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.4481526618066</v>
+        <v>43.76479166666667</v>
       </c>
       <c r="N15">
-        <v>41.4481526618066</v>
+        <v>131.294375</v>
       </c>
       <c r="O15">
-        <v>0.9438986235900395</v>
+        <v>0.9288213658468979</v>
       </c>
       <c r="P15">
-        <v>0.9438986235900395</v>
+        <v>0.9443897143282142</v>
       </c>
       <c r="Q15">
-        <v>38.17328076085821</v>
+        <v>145.9042586959722</v>
       </c>
       <c r="R15">
-        <v>38.17328076085821</v>
+        <v>1313.13832826375</v>
       </c>
       <c r="S15">
-        <v>0.07244881526412945</v>
+        <v>0.222272196580297</v>
       </c>
       <c r="T15">
-        <v>0.07244881526412945</v>
+        <v>0.2406844593318671</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1402,117 +1402,613 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.920988712629258</v>
+        <v>3.333827333333333</v>
       </c>
       <c r="H16">
-        <v>0.920988712629258</v>
+        <v>10.001482</v>
       </c>
       <c r="I16">
-        <v>0.07675486906483288</v>
+        <v>0.2393056455776397</v>
       </c>
       <c r="J16">
-        <v>0.07675486906483288</v>
+        <v>0.2548571375568999</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.340948752398633</v>
+        <v>0.433046</v>
       </c>
       <c r="N16">
-        <v>0.340948752398633</v>
+        <v>1.299138</v>
       </c>
       <c r="O16">
-        <v>0.007764424647093153</v>
+        <v>0.009190547055680088</v>
       </c>
       <c r="P16">
-        <v>0.007764424647093153</v>
+        <v>0.009344593511282775</v>
       </c>
       <c r="Q16">
-        <v>0.3140099525441686</v>
+        <v>1.443700591390667</v>
       </c>
       <c r="R16">
-        <v>0.3140099525441686</v>
+        <v>12.993305322516</v>
       </c>
       <c r="S16">
-        <v>0.0005959573971513962</v>
+        <v>0.002199349796371199</v>
       </c>
       <c r="T16">
-        <v>0.0005959573971513962</v>
+        <v>0.002381536353918309</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.333827333333333</v>
+      </c>
+      <c r="H17">
+        <v>10.001482</v>
+      </c>
+      <c r="I17">
+        <v>0.2393056455776397</v>
+      </c>
+      <c r="J17">
+        <v>0.2548571375568999</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.111859</v>
+      </c>
+      <c r="N17">
+        <v>0.335577</v>
+      </c>
+      <c r="O17">
+        <v>0.002373986604428442</v>
+      </c>
+      <c r="P17">
+        <v>0.002413777948713486</v>
+      </c>
+      <c r="Q17">
+        <v>0.3729185916793333</v>
+      </c>
+      <c r="R17">
+        <v>3.356267325114</v>
+      </c>
+      <c r="S17">
+        <v>0.0005681083969654169</v>
+      </c>
+      <c r="T17">
+        <v>0.0006151685387070845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.333827333333333</v>
+      </c>
+      <c r="H18">
+        <v>10.001482</v>
+      </c>
+      <c r="I18">
+        <v>0.2393056455776397</v>
+      </c>
+      <c r="J18">
+        <v>0.2548571375568999</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4786703333333334</v>
+      </c>
+      <c r="N18">
+        <v>1.436011</v>
+      </c>
+      <c r="O18">
+        <v>0.01015883352497904</v>
+      </c>
+      <c r="P18">
+        <v>0.01032910981953472</v>
+      </c>
+      <c r="Q18">
+        <v>1.595804240922444</v>
+      </c>
+      <c r="R18">
+        <v>14.362238168302</v>
+      </c>
+      <c r="S18">
+        <v>0.002431066215010878</v>
+      </c>
+      <c r="T18">
+        <v>0.002632447362117485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.920988712629258</v>
-      </c>
-      <c r="H17">
-        <v>0.920988712629258</v>
-      </c>
-      <c r="I17">
-        <v>0.07675486906483288</v>
-      </c>
-      <c r="J17">
-        <v>0.07675486906483288</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.43938233804504</v>
-      </c>
-      <c r="N17">
-        <v>1.43938233804504</v>
-      </c>
-      <c r="O17">
-        <v>0.03277904853290288</v>
-      </c>
-      <c r="P17">
-        <v>0.03277904853290288</v>
-      </c>
-      <c r="Q17">
-        <v>1.325654886497393</v>
-      </c>
-      <c r="R17">
-        <v>1.325654886497393</v>
-      </c>
-      <c r="S17">
-        <v>0.002515951578212763</v>
-      </c>
-      <c r="T17">
-        <v>0.002515951578212763</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.333827333333333</v>
+      </c>
+      <c r="H19">
+        <v>10.001482</v>
+      </c>
+      <c r="I19">
+        <v>0.2393056455776397</v>
+      </c>
+      <c r="J19">
+        <v>0.2548571375568999</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.5887865</v>
+      </c>
+      <c r="N19">
+        <v>3.177573</v>
+      </c>
+      <c r="O19">
+        <v>0.03371885917357341</v>
+      </c>
+      <c r="P19">
+        <v>0.0228560230225175</v>
+      </c>
+      <c r="Q19">
+        <v>5.296739860531</v>
+      </c>
+      <c r="R19">
+        <v>31.780439163186</v>
+      </c>
+      <c r="S19">
+        <v>0.008069113362673503</v>
+      </c>
+      <c r="T19">
+        <v>0.005825020603453414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9492136666666665</v>
+      </c>
+      <c r="H20">
+        <v>2.847640999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.06813555909797722</v>
+      </c>
+      <c r="J20">
+        <v>0.07256340950767776</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7414780000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.482956</v>
+      </c>
+      <c r="O20">
+        <v>0.01573640779444115</v>
+      </c>
+      <c r="P20">
+        <v>0.01066678136973736</v>
+      </c>
+      <c r="Q20">
+        <v>0.7038210511326666</v>
+      </c>
+      <c r="R20">
+        <v>4.222926306795999</v>
+      </c>
+      <c r="S20">
+        <v>0.001072208943268014</v>
+      </c>
+      <c r="T20">
+        <v>0.0007740180246611202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9492136666666665</v>
+      </c>
+      <c r="H21">
+        <v>2.847640999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.06813555909797722</v>
+      </c>
+      <c r="J21">
+        <v>0.07256340950767776</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>43.76479166666667</v>
+      </c>
+      <c r="N21">
+        <v>131.294375</v>
+      </c>
+      <c r="O21">
+        <v>0.9288213658468979</v>
+      </c>
+      <c r="P21">
+        <v>0.9443897143282142</v>
+      </c>
+      <c r="Q21">
+        <v>41.54213836881944</v>
+      </c>
+      <c r="R21">
+        <v>373.8792453193749</v>
+      </c>
+      <c r="S21">
+        <v>0.06328576306412523</v>
+      </c>
+      <c r="T21">
+        <v>0.06852813757563701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9492136666666665</v>
+      </c>
+      <c r="H22">
+        <v>2.847640999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.06813555909797722</v>
+      </c>
+      <c r="J22">
+        <v>0.07256340950767776</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.433046</v>
+      </c>
+      <c r="N22">
+        <v>1.299138</v>
+      </c>
+      <c r="O22">
+        <v>0.009190547055680088</v>
+      </c>
+      <c r="P22">
+        <v>0.009344593511282775</v>
+      </c>
+      <c r="Q22">
+        <v>0.4110531814953333</v>
+      </c>
+      <c r="R22">
+        <v>3.699478633457999</v>
+      </c>
+      <c r="S22">
+        <v>0.0006262030620550311</v>
+      </c>
+      <c r="T22">
+        <v>0.0006780755656420003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9492136666666665</v>
+      </c>
+      <c r="H23">
+        <v>2.847640999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.06813555909797722</v>
+      </c>
+      <c r="J23">
+        <v>0.07256340950767776</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.111859</v>
+      </c>
+      <c r="N23">
+        <v>0.335577</v>
+      </c>
+      <c r="O23">
+        <v>0.002373986604428442</v>
+      </c>
+      <c r="P23">
+        <v>0.002413777948713486</v>
+      </c>
+      <c r="Q23">
+        <v>0.1061780915396666</v>
+      </c>
+      <c r="R23">
+        <v>0.9556028238569998</v>
+      </c>
+      <c r="S23">
+        <v>0.0001617529045838403</v>
+      </c>
+      <c r="T23">
+        <v>0.000175151957753099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9492136666666665</v>
+      </c>
+      <c r="H24">
+        <v>2.847640999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.06813555909797722</v>
+      </c>
+      <c r="J24">
+        <v>0.07256340950767776</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.4786703333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.436011</v>
+      </c>
+      <c r="O24">
+        <v>0.01015883352497904</v>
+      </c>
+      <c r="P24">
+        <v>0.01032910981953472</v>
+      </c>
+      <c r="Q24">
+        <v>0.4543604222278889</v>
+      </c>
+      <c r="R24">
+        <v>4.089243800050999</v>
+      </c>
+      <c r="S24">
+        <v>0.0006921778020077215</v>
+      </c>
+      <c r="T24">
+        <v>0.000749515425684673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9492136666666665</v>
+      </c>
+      <c r="H25">
+        <v>2.847640999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.06813555909797722</v>
+      </c>
+      <c r="J25">
+        <v>0.07256340950767776</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.5887865</v>
+      </c>
+      <c r="N25">
+        <v>3.177573</v>
+      </c>
+      <c r="O25">
+        <v>0.03371885917357341</v>
+      </c>
+      <c r="P25">
+        <v>0.0228560230225175</v>
+      </c>
+      <c r="Q25">
+        <v>1.5080978592155</v>
+      </c>
+      <c r="R25">
+        <v>9.048587155292998</v>
+      </c>
+      <c r="S25">
+        <v>0.002297453321937382</v>
+      </c>
+      <c r="T25">
+        <v>0.001658510958299848</v>
       </c>
     </row>
   </sheetData>
